--- a/src/test/resources/data/tests.xlsx
+++ b/src/test/resources/data/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\IdeaProjects\SeleniumPractice\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EC0797-21CA-4B42-A64B-3B522945BC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F705D4-3D54-44E7-B517-E928A4A8F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/tests.xlsx
+++ b/src/test/resources/data/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\IdeaProjects\SeleniumPractice\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F705D4-3D54-44E7-B517-E928A4A8F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F692A96-FE3D-4820-B6B2-C8AD5545AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>Data1</t>
   </si>
@@ -111,12 +111,6 @@
     <t>(Automation Practice Register Page) Verify that all the web elements are present</t>
   </si>
   <si>
-    <t>registerWithFieldEmpty</t>
-  </si>
-  <si>
-    <t>registerWithInvalidFieldValue</t>
-  </si>
-  <si>
     <t>00000</t>
   </si>
   <si>
@@ -147,12 +141,6 @@
     <t>Data10</t>
   </si>
   <si>
-    <t>registerWithValidFieldValue</t>
-  </si>
-  <si>
-    <t>(Automation Practice Register Page) Verify that regitration is completed when try to register with fields valid</t>
-  </si>
-  <si>
     <t>Mr</t>
   </si>
   <si>
@@ -210,12 +198,6 @@
     <t>createAccountWithoutEmail</t>
   </si>
   <si>
-    <t>(Automation Practice Register Page) Verify that errors are generated when try to register with fields empty</t>
-  </si>
-  <si>
-    <t>(Automation Practice Register Page) Verify that errors are generated when try to register with fields invalid</t>
-  </si>
-  <si>
     <t>createAccountWithWrongEmail</t>
   </si>
   <si>
@@ -235,6 +217,174 @@
   </si>
   <si>
     <t>(Automation Practice Signin Page) Verify that create account begins when try to create it with a well formated email</t>
+  </si>
+  <si>
+    <t>createAccountWithRegisteredEmail</t>
+  </si>
+  <si>
+    <t>(Automation Practice Signin Page) Verify that an error is generated when try to create an account with a registered email</t>
+  </si>
+  <si>
+    <t>prueba@prueba.com</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Signin Page not displayed</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Result Page not displayed</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>No Result displayed</t>
+  </si>
+  <si>
+    <t>Select Day Birth no fill</t>
+  </si>
+  <si>
+    <t>Select Month Birth no fill</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Select Year Birth no fill</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Select State no fill</t>
+  </si>
+  <si>
+    <t>Select Country no fill</t>
+  </si>
+  <si>
+    <t>No error generated with wrong email</t>
+  </si>
+  <si>
+    <t>(Automation Practice Register Page) Verify that errors are generated when try to register with invalid fields</t>
+  </si>
+  <si>
+    <t>(Automation Practice Register Page) Verify that errors are generated when try to register with empty fields</t>
+  </si>
+  <si>
+    <t>(Automation Practice Register Page) Verify that regitration is completed when try to register with valid fields</t>
+  </si>
+  <si>
+    <t>Invalid date of birth</t>
+  </si>
+  <si>
+    <t>firstname field format not validated</t>
+  </si>
+  <si>
+    <t>lastname field format not validated</t>
+  </si>
+  <si>
+    <t>password field format not validated</t>
+  </si>
+  <si>
+    <t>birthday date not validated</t>
+  </si>
+  <si>
+    <t>Postal Code not validated</t>
+  </si>
+  <si>
+    <t>registerWithInvalidField</t>
+  </si>
+  <si>
+    <t>registerWithValidField</t>
+  </si>
+  <si>
+    <t>registerWithEmptyField</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>No error generated with empty fields</t>
+  </si>
+  <si>
+    <t>firstname field no required</t>
+  </si>
+  <si>
+    <t>lastname field no required</t>
+  </si>
+  <si>
+    <t>password field no required</t>
+  </si>
+  <si>
+    <t>address field no required</t>
+  </si>
+  <si>
+    <t>city field no required</t>
+  </si>
+  <si>
+    <t>state field no required</t>
+  </si>
+  <si>
+    <t>no phone number required</t>
+  </si>
+  <si>
+    <t>No error generated with empty email</t>
+  </si>
+  <si>
+    <t>Error no present with empty email</t>
+  </si>
+  <si>
+    <t>Error no present with wrong email</t>
+  </si>
+  <si>
+    <t>Register Page not displayed</t>
+  </si>
+  <si>
+    <t>No Result Elements displayed</t>
+  </si>
+  <si>
+    <t>email address has already been registered</t>
+  </si>
+  <si>
+    <t>Invalid email address</t>
+  </si>
+  <si>
+    <t>firstname is required</t>
+  </si>
+  <si>
+    <t>lastname is required</t>
+  </si>
+  <si>
+    <t>passwd is required</t>
+  </si>
+  <si>
+    <t>address1 is required</t>
+  </si>
+  <si>
+    <t>city is required</t>
+  </si>
+  <si>
+    <t>This country requires you to choose a State</t>
+  </si>
+  <si>
+    <t>You must register at least one phone number</t>
+  </si>
+  <si>
+    <t>firstname is invalid</t>
+  </si>
+  <si>
+    <t>lastname is invalid</t>
+  </si>
+  <si>
+    <t>passwd is invalid</t>
+  </si>
+  <si>
+    <t>Postal code you've entered is invalid</t>
   </si>
 </sst>
 </file>
@@ -286,8 +436,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,327 +756,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="41" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" customWidth="1"/>
+    <col min="4" max="23" width="30.28515625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="2" t="s">
+    </row>
+    <row r="13" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/tests.xlsx
+++ b/src/test/resources/data/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\IdeaProjects\SeleniumPractice\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F692A96-FE3D-4820-B6B2-C8AD5545AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5889A32-4EEA-4C7F-B6E3-73845A4EB0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="540" windowWidth="17535" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="117">
   <si>
     <t>Data1</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>Error no present with wrong email</t>
-  </si>
-  <si>
-    <t>Register Page not displayed</t>
   </si>
   <si>
     <t>No Result Elements displayed</t>
@@ -758,9 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -882,7 +879,7 @@
         <v>69</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -997,43 +994,43 @@
         <v>92</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>95</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>96</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>99</v>
@@ -1077,19 +1074,19 @@
         <v>78</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>84</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>85</v>
@@ -1101,7 +1098,7 @@
         <v>86</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>87</v>
@@ -1197,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>101</v>
@@ -1223,7 +1220,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>102</v>
@@ -1242,12 +1239,6 @@
       <c r="D15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="16" spans="1:23" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1269,7 +1260,7 @@
         <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>102</v>
